--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -120,10 +120,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_021_v4_present</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>GameComAct1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,7 +167,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_021_v1_present</t>
+    <t>actp_own_task_p_summer_lgfl1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_summer_lgfl2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +578,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>22</v>
@@ -729,7 +729,7 @@
         <v>1597679999</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -740,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>23</v>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>22</v>
@@ -785,7 +785,7 @@
         <v>1597679999</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -820,13 +820,13 @@
         <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>22</v>
@@ -844,7 +844,7 @@
         <v>1597679999</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>23</v>
@@ -879,13 +879,13 @@
         <v>28</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>22</v>
@@ -903,7 +903,7 @@
         <v>1597679999</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>id|行号</t>
   </si>
@@ -132,46 +132,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>summer_gift</t>
+    <t>"act_024_jfcdj","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_024_wyzjf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_024_wyzjf","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_024_lgfl2_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_024_lgfl1_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_024_lgfl1_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_024_lgfl2_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_summer_lgfl1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_summer_lgfl2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>act_024_jfcdj</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"act_024_jfcdj","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_024_wyzjf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_024_wyzjf","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_024_lgfl2_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_024_lgfl1_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","activity_024_lgfl1_config"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","activity_024_lgfl2_config"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_summer_lgfl1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_summer_lgfl2</t>
+    <t>Sign_in_popup_old</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign_in_popup_old</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +580,10 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -711,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>22</v>
@@ -729,7 +734,7 @@
         <v>1597679999</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -749,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>23</v>
@@ -767,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>22</v>
@@ -785,7 +790,7 @@
         <v>1597679999</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -820,13 +825,13 @@
         <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>22</v>
@@ -844,7 +849,7 @@
         <v>1597679999</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -879,13 +884,13 @@
         <v>28</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>22</v>
@@ -903,7 +908,7 @@
         <v>1597679999</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -200,10 +200,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> act_025_lxdh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>" act_025_lxdh","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -229,6 +225,10 @@
   </si>
   <si>
     <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_lxdh</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +641,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>23</v>
@@ -1061,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="P7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="R7" s="9">
         <v>44061.3125</v>
@@ -1079,7 +1079,7 @@
         <v>1598284799</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1090,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>23</v>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>22</v>
@@ -1135,7 +1135,7 @@
         <v>1598284799</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$U$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -200,10 +200,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>" act_025_lxdh","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>normal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -229,6 +225,10 @@
   </si>
   <si>
     <t>act_025_lxdh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_025_lxdh","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +638,10 @@
   <dimension ref="A1:XFD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>23</v>
@@ -1061,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="P7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="R7" s="9">
         <v>44061.3125</v>
@@ -1079,7 +1079,7 @@
         <v>1598284799</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1090,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>23</v>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>22</v>
@@ -1135,7 +1135,7 @@
         <v>1598284799</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>id|行号</t>
   </si>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>"act_025_lxdh","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_025_bxfl_config</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +642,10 @@
   <dimension ref="A1:XFD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1113,6 +1117,9 @@
       <c r="J8" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="K8" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="N8" s="3">
         <v>1</v>
       </c>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$U$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -244,11 +244,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>“act_026_bblb”,"panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_026_dove_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_bblb","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +677,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>22</v>
@@ -1230,7 +1230,7 @@
         <v>1598889599</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>id|行号</t>
   </si>
@@ -249,6 +249,26 @@
   </si>
   <si>
     <t>"act_026_bblb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱榜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_zabd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_zabd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_true_love_026_rank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -671,13 +691,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD9"/>
+  <dimension ref="A1:XFD10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1233,6 +1253,62 @@
         <v>60</v>
       </c>
     </row>
+    <row r="10" spans="1:22 16384:16384" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="13">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="14">
+        <v>44068.3125</v>
+      </c>
+      <c r="S10" s="11">
+        <v>1598311800</v>
+      </c>
+      <c r="T10" s="14">
+        <v>44074.999988425923</v>
+      </c>
+      <c r="U10" s="11">
+        <v>1598889599</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>id|行号</t>
   </si>
@@ -269,6 +269,22 @@
   </si>
   <si>
     <t>actp_rank_true_love_026_rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_lmlh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫礼盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_lmlh","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_026_lmqx_lmlh</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -691,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD10"/>
+  <dimension ref="A1:XFD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1309,6 +1325,62 @@
         <v>66</v>
       </c>
     </row>
+    <row r="11" spans="1:22 16384:16384" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="13">
+        <v>1</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="14">
+        <v>44068.3125</v>
+      </c>
+      <c r="S11" s="11">
+        <v>1598311800</v>
+      </c>
+      <c r="T11" s="14">
+        <v>44074.999988425923</v>
+      </c>
+      <c r="U11" s="11">
+        <v>1598889599</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>id|行号</t>
   </si>
@@ -288,27 +288,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>GameComAct1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_030_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_030_xyxfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>小游戏福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩礼包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_030_hd_zjm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_030_hd_zjm","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_030_cwlb_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","act_030_cwlb_config"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -716,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD13"/>
+  <dimension ref="A1:XFD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1398,16 +1390,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>23</v>
@@ -1421,11 +1413,14 @@
       <c r="J12" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="K12" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="N12" s="3">
         <v>1</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>22</v>
@@ -1443,64 +1438,6 @@
         <v>1598284799</v>
       </c>
       <c r="V12" s="8"/>
-      <c r="XFD12" s="3"/>
-    </row>
-    <row r="13" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="9">
-        <v>44061.3125</v>
-      </c>
-      <c r="S13" s="8">
-        <v>1597707000</v>
-      </c>
-      <c r="T13" s="10">
-        <v>44067.999988425923</v>
-      </c>
-      <c r="U13" s="8">
-        <v>1598284799</v>
-      </c>
-      <c r="V13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -711,10 +711,10 @@
   <dimension ref="A1:XFD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1426,16 +1426,16 @@
         <v>22</v>
       </c>
       <c r="R12" s="9">
-        <v>44061.3125</v>
+        <v>44096.333333333336</v>
       </c>
       <c r="S12" s="8">
-        <v>1597707000</v>
+        <v>1600732800</v>
       </c>
       <c r="T12" s="10">
-        <v>44067.999988425923</v>
+        <v>44102.999988425923</v>
       </c>
       <c r="U12" s="8">
-        <v>1598284799</v>
+        <v>1601308799</v>
       </c>
       <c r="V12" s="8"/>
     </row>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>id|行号</t>
   </si>
@@ -216,91 +216,95 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_lxdh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_025_lxdh","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_025_bxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_bblb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白礼包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_026_dove_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_bblb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱榜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_zabd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_zabd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_true_love_026_rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_lmlh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫礼盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_026_lmlh","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_026_lmqx_lmlh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameComAct1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_030_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_030_xyxfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_030_xyxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_0818_bxfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lxdh_025_notnew</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_025_lxdh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_025_lxdh","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_025_bxfl_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_bblb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>表白礼包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_026_dove_gift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_026_bblb","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱榜单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_zabd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_026_zabd","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_true_love_026_rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_lmlh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪漫礼盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_026_lmlh","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_026_lmqx_lmlh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_030_xyxfl_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","activity_030_xyxfl_config"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏福利</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -711,10 +715,10 @@
   <dimension ref="A1:XFD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>23</v>
@@ -1134,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>49</v>
@@ -1152,7 +1156,7 @@
         <v>1598284799</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1187,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -1211,7 +1215,7 @@
         <v>1598284799</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1222,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -1231,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>23</v>
@@ -1249,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>22</v>
@@ -1267,7 +1271,7 @@
         <v>1598889599</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1278,7 +1282,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -1287,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>23</v>
@@ -1305,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="R10" s="7">
         <v>44068.3125</v>
@@ -1323,7 +1327,7 @@
         <v>1598889599</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1334,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -1343,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>23</v>
@@ -1361,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>49</v>
@@ -1379,7 +1383,7 @@
         <v>1598889599</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1390,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -1399,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>23</v>
@@ -1414,7 +1418,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -1437,7 +1441,9 @@
       <c r="U12" s="8">
         <v>1601308799</v>
       </c>
-      <c r="V12" s="8"/>
+      <c r="V12" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
   <si>
     <t>id|行号</t>
   </si>
@@ -305,6 +305,61 @@
   </si>
   <si>
     <t>actp_own_task_p_0818_bxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_wxhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_gqfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqflmfs_bg_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_gqfl","share_link"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_wxhhl","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -712,13 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD12"/>
+  <dimension ref="A1:XFD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1445,6 +1500,177 @@
         <v>74</v>
       </c>
     </row>
+    <row r="13" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="10">
+        <v>44103.3125</v>
+      </c>
+      <c r="S13" s="8">
+        <v>1601335800</v>
+      </c>
+      <c r="T13" s="10">
+        <v>44109.999988425923</v>
+      </c>
+      <c r="U13" s="8">
+        <v>1601913599</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="10">
+        <v>44103.3125</v>
+      </c>
+      <c r="S14" s="8">
+        <v>1601335800</v>
+      </c>
+      <c r="T14" s="10">
+        <v>44109.999988425923</v>
+      </c>
+      <c r="U14" s="8">
+        <v>1601913599</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" s="10">
+        <v>44103.3125</v>
+      </c>
+      <c r="S15" s="8">
+        <v>1601335800</v>
+      </c>
+      <c r="T15" s="10">
+        <v>44109.999988425923</v>
+      </c>
+      <c r="U15" s="8">
+        <v>1601913599</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+      <c r="H16" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$U$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>id|行号</t>
   </si>
@@ -329,10 +329,6 @@
   </si>
   <si>
     <t>"act_031_gqfd","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqfl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -767,10 +763,10 @@
   <dimension ref="A1:XFD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1532,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>49</v>
@@ -1603,7 +1599,7 @@
         <v>1601913599</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1622,9 +1618,6 @@
       <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1632,16 +1625,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>49</v>
@@ -1659,7 +1652,7 @@
         <v>1601913599</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:22 16384:16384" x14ac:dyDescent="0.2">

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>id|行号</t>
   </si>
@@ -336,23 +336,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqflmfs_bg_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_gqfl","share_link"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_wxhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>image</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gqflmfs_bg_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_031_gqfl","share_link"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_031_wxhhl","panel"</t>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -763,10 +767,10 @@
   <dimension ref="A1:XFD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>49</v>
@@ -1544,6 +1548,9 @@
       </c>
       <c r="U13" s="8">
         <v>1601913599</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1599,7 +1606,7 @@
         <v>1601913599</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1625,16 +1632,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>49</v>
@@ -1652,7 +1659,7 @@
         <v>1601913599</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:22 16384:16384" x14ac:dyDescent="0.2">

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -767,10 +767,10 @@
   <dimension ref="A1:XFD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1620,7 +1620,7 @@
         <v>78</v>
       </c>
       <c r="D15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="8">
         <v>3</v>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>id|行号</t>
   </si>
@@ -334,9 +334,6 @@
   <si>
     <t>act_031_gqfl</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
   </si>
   <si>
     <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
@@ -770,10 +767,10 @@
   <dimension ref="A1:XFD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1535,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>49</v>
@@ -1551,9 +1548,6 @@
       </c>
       <c r="U13" s="8">
         <v>1601913599</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1609,7 +1603,7 @@
         <v>1601913599</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1638,16 +1632,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>49</v>
@@ -1665,7 +1659,7 @@
         <v>1601913599</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:22 16384:16384" x14ac:dyDescent="0.2">

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -412,10 +412,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>火鸡换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>act_036_hjhhl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -445,6 +441,10 @@
   </si>
   <si>
     <t>"act_036_hjhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换豪礼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -883,10 +883,10 @@
   <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1807,7 +1807,7 @@
         <v>27</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N16" s="14">
         <v>1</v>
@@ -1910,10 +1910,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="H18" s="8">
         <v>1</v>
@@ -1922,13 +1922,13 @@
         <v>27</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="Q18" s="14" t="s">
         <v>49</v>
@@ -1954,16 +1954,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>23</v>
@@ -1972,16 +1972,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="14" t="s">
         <v>49</v>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -883,10 +883,10 @@
   <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>104</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>103</v>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -448,10 +448,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>双十二兑换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>act_038_s12dhhl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -460,15 +456,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>双十二礼盒收集榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>act_038_s12lhsjb</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"act_038_s12lhsjb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒收集榜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -926,7 +926,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2047,16 +2047,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>112</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>23</v>
@@ -2074,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="20" t="s">
         <v>49</v>
@@ -2100,7 +2100,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D21" s="20">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>23</v>
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="20" t="s">
         <v>49</v>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
   <si>
     <t>id|行号</t>
   </si>
@@ -461,6 +461,42 @@
   </si>
   <si>
     <t>"act_038_s12lhsjb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_jzhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_jzsjb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_034_ldfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -527,7 +563,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +585,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +626,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +684,25 @@
     </xf>
     <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -920,13 +981,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD22"/>
+  <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -936,15 +997,15 @@
     <col min="3" max="3" width="15.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="24.25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.875" style="4" customWidth="1"/>
     <col min="10" max="10" width="42.5" style="4" customWidth="1"/>
     <col min="11" max="11" width="43.875" style="4" customWidth="1"/>
     <col min="12" max="12" width="21.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="4" customWidth="1"/>
     <col min="15" max="15" width="18.125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.625" style="4" customWidth="1"/>
     <col min="17" max="17" width="29.625" style="4" customWidth="1"/>
@@ -2047,7 +2108,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D20" s="18">
         <v>0</v>
@@ -2100,7 +2161,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D21" s="20">
         <v>0</v>
@@ -2145,9 +2206,176 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11"/>
+    <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24">
+        <v>21</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25">
+        <v>1</v>
+      </c>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="27">
+        <v>44180.333333333336</v>
+      </c>
+      <c r="S22" s="26">
+        <v>1607990400</v>
+      </c>
+      <c r="T22" s="27">
+        <v>44190.999988425923</v>
+      </c>
+      <c r="U22" s="28">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24">
+        <v>22</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>2</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25">
+        <v>1</v>
+      </c>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23" s="27">
+        <v>44180.333333333336</v>
+      </c>
+      <c r="S23" s="26">
+        <v>1607990400</v>
+      </c>
+      <c r="T23" s="27">
+        <v>44190.999988425923</v>
+      </c>
+      <c r="U23" s="28">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>3</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25">
+        <v>1</v>
+      </c>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="R24" s="27">
+        <v>44180.333333333336</v>
+      </c>
+      <c r="S24" s="26">
+        <v>1607990400</v>
+      </c>
+      <c r="T24" s="27">
+        <v>44190.999988425923</v>
+      </c>
+      <c r="U24" s="28">
+        <v>1608566399</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -464,14 +464,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>冬至换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>冬至福袋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -501,6 +493,14 @@
   </si>
   <si>
     <t>兑换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒收集榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞福利</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -512,7 +512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,8 +562,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +639,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +715,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,10 +1000,10 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2108,7 +2124,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D20" s="18">
         <v>0</v>
@@ -2161,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="20">
         <v>0</v>
@@ -2214,7 +2230,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D22" s="25">
         <v>0</v>
@@ -2223,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>23</v>
@@ -2245,22 +2261,22 @@
       </c>
       <c r="O22" s="25"/>
       <c r="P22" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="25" t="s">
         <v>49</v>
       </c>
       <c r="R22" s="27">
-        <v>44180.333333333336</v>
-      </c>
-      <c r="S22" s="26">
-        <v>1607990400</v>
+        <v>44187.333333333336</v>
+      </c>
+      <c r="S22" s="29">
+        <v>1608595200</v>
       </c>
       <c r="T22" s="27">
-        <v>44190.999988425923</v>
-      </c>
-      <c r="U22" s="28">
-        <v>1608566399</v>
+        <v>44193.999988425923</v>
+      </c>
+      <c r="U22" s="29">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -2271,7 +2287,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D23" s="25">
         <v>0</v>
@@ -2280,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>23</v>
@@ -2302,22 +2318,22 @@
       </c>
       <c r="O23" s="25"/>
       <c r="P23" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="25" t="s">
         <v>49</v>
       </c>
       <c r="R23" s="27">
-        <v>44180.333333333336</v>
-      </c>
-      <c r="S23" s="26">
-        <v>1607990400</v>
+        <v>44187.333333333336</v>
+      </c>
+      <c r="S23" s="29">
+        <v>1608595200</v>
       </c>
       <c r="T23" s="27">
-        <v>44190.999988425923</v>
-      </c>
-      <c r="U23" s="28">
-        <v>1608566399</v>
+        <v>44193.999988425923</v>
+      </c>
+      <c r="U23" s="29">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -2328,7 +2344,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" s="25">
         <v>0</v>
@@ -2359,10 +2375,10 @@
       </c>
       <c r="O24" s="25"/>
       <c r="P24" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R24" s="27">
         <v>44180.333333333336</v>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -500,11 +500,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>圣诞福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒收集榜</t>
+    <t>元旦福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝榜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +639,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,8 +717,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -997,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD24"/>
+  <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
@@ -2226,114 +2242,114 @@
       <c r="A22" s="23">
         <v>21</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="32">
         <v>21</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="25">
-        <v>0</v>
-      </c>
-      <c r="E22" s="25">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="D22" s="33">
+        <v>0</v>
+      </c>
+      <c r="E22" s="33">
+        <v>1</v>
+      </c>
+      <c r="F22" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="23">
-        <v>1</v>
-      </c>
-      <c r="I22" s="25" t="s">
+      <c r="H22" s="35">
+        <v>1</v>
+      </c>
+      <c r="I22" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25">
-        <v>1</v>
-      </c>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25" t="s">
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33">
+        <v>1</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="27">
-        <v>44187.333333333336</v>
-      </c>
-      <c r="S22" s="29">
-        <v>1608595200</v>
-      </c>
-      <c r="T22" s="27">
-        <v>44193.999988425923</v>
-      </c>
-      <c r="U22" s="29">
-        <v>1609171199</v>
+      <c r="R22" s="30">
+        <v>44194.333333333336</v>
+      </c>
+      <c r="S22" s="31">
+        <v>1609200000</v>
+      </c>
+      <c r="T22" s="30">
+        <v>43834.999988425923</v>
+      </c>
+      <c r="U22" s="31">
+        <v>1609775999</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="32">
         <v>22</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="25">
-        <v>0</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="D23" s="33">
+        <v>0</v>
+      </c>
+      <c r="E23" s="33">
         <v>2</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="25">
-        <v>1</v>
-      </c>
-      <c r="I23" s="25" t="s">
+      <c r="H23" s="33">
+        <v>1</v>
+      </c>
+      <c r="I23" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25">
-        <v>1</v>
-      </c>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25" t="s">
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33">
+        <v>1</v>
+      </c>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="27">
-        <v>44187.333333333336</v>
-      </c>
-      <c r="S23" s="29">
-        <v>1608595200</v>
-      </c>
-      <c r="T23" s="27">
-        <v>44193.999988425923</v>
-      </c>
-      <c r="U23" s="29">
-        <v>1609171199</v>
+      <c r="R23" s="30">
+        <v>44194.333333333336</v>
+      </c>
+      <c r="S23" s="31">
+        <v>1609200000</v>
+      </c>
+      <c r="T23" s="30">
+        <v>43834.999988425923</v>
+      </c>
+      <c r="U23" s="31">
+        <v>1609775999</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -2392,6 +2408,10 @@
       <c r="U24" s="28">
         <v>1608566399</v>
       </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -500,11 +500,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>元旦福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>金元宝榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦好礼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1019,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2246,7 +2246,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D22" s="33">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="33">
         <v>0</v>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="129">
   <si>
     <t>id|行号</t>
   </si>
@@ -292,219 +292,231 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>actp_own_task_p_0818_bxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_wxhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_gqfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqflmfs_bg_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_gqfl","share_link"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_wxhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_030_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_034_ldfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_034_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameComAct1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_034_xyxfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_034_xyxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_gelb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_hjhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12dhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_038_s12dhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_038_s12lhsjb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_jzsjb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_034_ldfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒收集榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星排行榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_041_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_041_xyxfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_030_xyxfl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_0818_bxfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福袋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_wxhhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqfd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_031_gqfd","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gqflmfs_bg_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_031_gqfl","share_link"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_031_wxhhl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福袋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_034_ldfd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_030_xyxfl_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_034_ldfd","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_034_xyxfl_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","activity_034_xyxfl_config"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_034_xyxfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩礼包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_hjhhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_gelb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_036_gelb","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_036_hjhhl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12dhhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_038_s12dhhl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12lhsjb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_038_s12lhsjb","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬至福袋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_jzhhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_039_jzhhl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_jzsjb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_039_jzsjb","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_034_ldfd","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒收集榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦好礼</t>
+    <t>act_039_ty_by_hhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_ty_by_hhl","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +582,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,25 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +633,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,69 +666,56 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1016,21 +997,21 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.875" style="4" customWidth="1"/>
     <col min="10" max="10" width="42.5" style="4" customWidth="1"/>
@@ -1042,9 +1023,9 @@
     <col min="16" max="16" width="40.625" style="4" customWidth="1"/>
     <col min="17" max="17" width="29.625" style="4" customWidth="1"/>
     <col min="18" max="18" width="16" style="4" customWidth="1"/>
-    <col min="19" max="19" width="21.875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="21.875" style="24" customWidth="1"/>
     <col min="20" max="20" width="18.375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="19.875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="19.875" style="24" customWidth="1"/>
     <col min="22" max="22" width="34" style="4" customWidth="1"/>
     <col min="23" max="16384" width="9" style="4"/>
   </cols>
@@ -1068,7 +1049,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1104,13 +1085,13 @@
       <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="21" t="s">
         <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="V1" s="6" t="s">
@@ -1136,7 +1117,7 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="26" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="4">
@@ -1160,13 +1141,13 @@
       <c r="R2" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="24">
         <v>1597102200</v>
       </c>
       <c r="T2" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="22">
         <v>1597679999</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -1192,7 +1173,7 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="4">
@@ -1216,13 +1197,13 @@
       <c r="R3" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="24">
         <v>1597102200</v>
       </c>
       <c r="T3" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="22">
         <v>1597679999</v>
       </c>
       <c r="V3" s="4" t="s">
@@ -1248,7 +1229,7 @@
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="26" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="3">
@@ -1275,13 +1256,13 @@
       <c r="R4" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="24">
         <v>1597102200</v>
       </c>
       <c r="T4" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="22">
         <v>1597679999</v>
       </c>
       <c r="V4" s="3" t="s">
@@ -1307,7 +1288,7 @@
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="3">
@@ -1334,13 +1315,13 @@
       <c r="R5" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="24">
         <v>1597102200</v>
       </c>
       <c r="T5" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="22">
         <v>1597679999</v>
       </c>
       <c r="V5" s="3" t="s">
@@ -1366,7 +1347,7 @@
       <c r="F6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="8">
@@ -1390,13 +1371,13 @@
       <c r="R6" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="23">
         <v>1597707000</v>
       </c>
       <c r="T6" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="23">
         <v>1598284799</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -1423,7 +1404,7 @@
       <c r="F7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="8">
@@ -1447,13 +1428,13 @@
       <c r="R7" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="23">
         <v>1597707000</v>
       </c>
       <c r="T7" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="23">
         <v>1598284799</v>
       </c>
       <c r="V7" s="8" t="s">
@@ -1479,7 +1460,7 @@
       <c r="F8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="8">
@@ -1506,17 +1487,17 @@
       <c r="R8" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="23">
         <v>1597707000</v>
       </c>
       <c r="T8" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="23">
         <v>1598284799</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1538,7 +1519,7 @@
       <c r="F9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="8">
@@ -1562,13 +1543,13 @@
       <c r="R9" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="23">
         <v>1598311800</v>
       </c>
       <c r="T9" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="23">
         <v>1598889599</v>
       </c>
       <c r="V9" s="8" t="s">
@@ -1594,7 +1575,7 @@
       <c r="F10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="8">
@@ -1618,13 +1599,13 @@
       <c r="R10" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="23">
         <v>1598311800</v>
       </c>
       <c r="T10" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="23">
         <v>1598889599</v>
       </c>
       <c r="V10" s="8" t="s">
@@ -1650,7 +1631,7 @@
       <c r="F11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="8">
@@ -1674,13 +1655,13 @@
       <c r="R11" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="23">
         <v>1598311800</v>
       </c>
       <c r="T11" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="23">
         <v>1598889599</v>
       </c>
       <c r="V11" s="8" t="s">
@@ -1694,56 +1675,59 @@
       <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="8" t="s">
+      <c r="K12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16">
+        <v>1</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="9">
-        <v>44096.333333333336</v>
-      </c>
-      <c r="S12" s="8">
-        <v>1600732800</v>
-      </c>
-      <c r="T12" s="10">
-        <v>44102.999988425923</v>
-      </c>
-      <c r="U12" s="8">
-        <v>1601308799</v>
-      </c>
-      <c r="V12" s="8" t="s">
-        <v>72</v>
+      <c r="R12" s="18">
+        <v>44201.3125</v>
+      </c>
+      <c r="S12" s="20">
+        <v>1609804800</v>
+      </c>
+      <c r="T12" s="18">
+        <v>44207.999988425923</v>
+      </c>
+      <c r="U12" s="20">
+        <v>1610380799</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1754,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -1763,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>27</v>
@@ -1781,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>49</v>
@@ -1789,17 +1773,17 @@
       <c r="R13" s="10">
         <v>44103.3125</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="23">
         <v>1601335800</v>
       </c>
       <c r="T13" s="10">
         <v>44109.999988425923</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="23">
         <v>1601913599</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1810,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -1819,25 +1803,25 @@
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>49</v>
@@ -1845,17 +1829,17 @@
       <c r="R14" s="10">
         <v>44103.3125</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="23">
         <v>1601335800</v>
       </c>
       <c r="T14" s="10">
         <v>44109.999988425923</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="23">
         <v>1601913599</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1866,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -1874,23 +1858,23 @@
       <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>49</v>
@@ -1898,143 +1882,143 @@
       <c r="R15" s="10">
         <v>44103.3125</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="23">
         <v>1601335800</v>
       </c>
       <c r="T15" s="10">
         <v>44109.999988425923</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="23">
         <v>1601913599</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22 16384:16384" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22 16384:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <v>2</v>
-      </c>
-      <c r="F16" s="16" t="s">
+      <c r="R16" s="7">
+        <v>44138.3125</v>
+      </c>
+      <c r="S16" s="22">
+        <v>1604359800</v>
+      </c>
+      <c r="T16" s="7">
+        <v>44144.999988425923</v>
+      </c>
+      <c r="U16" s="22">
+        <v>1604937599</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N16" s="14">
-        <v>1</v>
-      </c>
-      <c r="P16" s="14" t="s">
+      <c r="J17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q16" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="R16" s="15">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17" s="7">
         <v>44138.3125</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S17" s="22">
         <v>1604359800</v>
       </c>
-      <c r="T16" s="15">
+      <c r="T17" s="7">
         <v>44144.999988425923</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U17" s="22">
         <v>1604937599</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="V17" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13">
-        <v>16</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
-        <v>3</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="14">
-        <v>1</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="R17" s="15">
-        <v>44138.3125</v>
-      </c>
-      <c r="S17" s="14">
-        <v>1604359800</v>
-      </c>
-      <c r="T17" s="15">
-        <v>44144.999988425923</v>
-      </c>
-      <c r="U17" s="14">
-        <v>1604937599</v>
-      </c>
-      <c r="V17" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="11">
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -2042,376 +2026,436 @@
       <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="H18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q18" s="14" t="s">
+      <c r="Q18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="7">
         <v>44152.3125</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="23">
         <v>1606176000</v>
       </c>
-      <c r="T18" s="15">
+      <c r="T18" s="7">
         <v>44159.999988425923</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="22">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="11">
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="7">
+        <v>44152.3125</v>
+      </c>
+      <c r="S19" s="23">
+        <v>1606176000</v>
+      </c>
+      <c r="T19" s="7">
+        <v>44159.999988425923</v>
+      </c>
+      <c r="U19" s="22">
+        <v>1606751999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="G20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="15">
-        <v>44152.3125</v>
-      </c>
-      <c r="S19" s="8">
-        <v>1606176000</v>
-      </c>
-      <c r="T19" s="15">
-        <v>44159.999988425923</v>
-      </c>
-      <c r="U19" s="4">
-        <v>1606751999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
-        <v>19</v>
-      </c>
-      <c r="B20" s="19">
-        <v>19</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="R20" s="7">
+        <v>44173.333333333336</v>
+      </c>
+      <c r="S20" s="23">
+        <v>1607385600</v>
+      </c>
+      <c r="T20" s="7">
+        <v>44179.999988425923</v>
+      </c>
+      <c r="U20" s="22">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="7">
+        <v>44173.333333333336</v>
+      </c>
+      <c r="S21" s="23">
+        <v>1607385600</v>
+      </c>
+      <c r="T21" s="7">
+        <v>44179.999988425923</v>
+      </c>
+      <c r="U21" s="22">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>21</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16">
+        <v>1</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="18">
+        <v>44201.3125</v>
+      </c>
+      <c r="S22" s="20">
+        <v>1609804800</v>
+      </c>
+      <c r="T22" s="18">
+        <v>44207.999988425923</v>
+      </c>
+      <c r="U22" s="20">
+        <v>1610380799</v>
+      </c>
+      <c r="V22" s="16"/>
+    </row>
+    <row r="23" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>22</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="20" t="s">
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>2</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="18">
-        <v>1</v>
-      </c>
-      <c r="I20" s="20" t="s">
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="20">
-        <v>1</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="20" t="s">
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16">
+        <v>1</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="21">
-        <v>44173.333333333336</v>
-      </c>
-      <c r="S20" s="18">
-        <v>1607385600</v>
-      </c>
-      <c r="T20" s="21">
-        <v>44179.999988425923</v>
-      </c>
-      <c r="U20" s="20">
-        <v>1607961599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
-        <v>20</v>
-      </c>
-      <c r="B21" s="19">
-        <v>20</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="R23" s="18">
+        <v>44201.3125</v>
+      </c>
+      <c r="S23" s="20">
+        <v>1609804800</v>
+      </c>
+      <c r="T23" s="18">
+        <v>44207.999988425923</v>
+      </c>
+      <c r="U23" s="20">
+        <v>1610380799</v>
+      </c>
+      <c r="V23" s="16"/>
+    </row>
+    <row r="24" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="R24" s="7">
+        <v>44180.333333333336</v>
+      </c>
+      <c r="S24" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="T24" s="7">
+        <v>44190.999988425923</v>
+      </c>
+      <c r="U24" s="15">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>3</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="20">
-        <v>2</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="20">
-        <v>1</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="20">
-        <v>1</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q21" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="R21" s="21">
-        <v>44173.333333333336</v>
-      </c>
-      <c r="S21" s="18">
-        <v>1607385600</v>
-      </c>
-      <c r="T21" s="21">
-        <v>44179.999988425923</v>
-      </c>
-      <c r="U21" s="20">
-        <v>1607961599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
-        <v>21</v>
-      </c>
-      <c r="B22" s="32">
-        <v>21</v>
-      </c>
-      <c r="C22" s="33" t="s">
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16">
+        <v>1</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="18">
+        <v>44201.3125</v>
+      </c>
+      <c r="S25" s="20">
+        <v>1609804800</v>
+      </c>
+      <c r="T25" s="18">
+        <v>44207.999988425923</v>
+      </c>
+      <c r="U25" s="20">
+        <v>1610380799</v>
+      </c>
+      <c r="V25" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="33">
-        <v>0</v>
-      </c>
-      <c r="E22" s="33">
-        <v>1</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="35">
-        <v>1</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33">
-        <v>1</v>
-      </c>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q22" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="R22" s="30">
-        <v>44194.333333333336</v>
-      </c>
-      <c r="S22" s="31">
-        <v>1609200000</v>
-      </c>
-      <c r="T22" s="30">
-        <v>43834.999988425923</v>
-      </c>
-      <c r="U22" s="31">
-        <v>1609775999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
-        <v>22</v>
-      </c>
-      <c r="B23" s="32">
-        <v>22</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="33">
-        <v>0</v>
-      </c>
-      <c r="E23" s="33">
-        <v>2</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="33">
-        <v>1</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33">
-        <v>1</v>
-      </c>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q23" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="R23" s="30">
-        <v>44194.333333333336</v>
-      </c>
-      <c r="S23" s="31">
-        <v>1609200000</v>
-      </c>
-      <c r="T23" s="30">
-        <v>43834.999988425923</v>
-      </c>
-      <c r="U23" s="31">
-        <v>1609775999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
-        <v>23</v>
-      </c>
-      <c r="B24" s="24">
-        <v>23</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="25">
-        <v>0</v>
-      </c>
-      <c r="E24" s="25">
-        <v>3</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="23">
-        <v>1</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25">
-        <v>1</v>
-      </c>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q24" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="R24" s="27">
-        <v>44180.333333333336</v>
-      </c>
-      <c r="S24" s="26">
-        <v>1607990400</v>
-      </c>
-      <c r="T24" s="27">
-        <v>44190.999988425923</v>
-      </c>
-      <c r="U24" s="28">
-        <v>1608566399</v>
-      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
   <si>
     <t>id|行号</t>
   </si>
@@ -516,18 +516,92 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"GameComAct1","activity_041_xyxfl_config_cjj"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_041_xyxfl_config_cjj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xyxfl_3dby_limit</t>
-  </si>
-  <si>
-    <t>xyxfl_cjj_limit</t>
+    <t>兑换奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒排行榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameComAct1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameComAct1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_042_hlfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_jzsjb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_lb1","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_042_hlfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_ty_by_hhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -592,7 +666,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +682,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +723,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,15 +756,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -726,6 +800,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1004,13 +1097,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD28"/>
+  <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V25" sqref="V25:V26"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1020,8 +1113,8 @@
     <col min="3" max="3" width="31" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.875" style="4" customWidth="1"/>
     <col min="10" max="10" width="42.5" style="4" customWidth="1"/>
@@ -1033,9 +1126,9 @@
     <col min="16" max="16" width="40.625" style="4" customWidth="1"/>
     <col min="17" max="17" width="29.625" style="4" customWidth="1"/>
     <col min="18" max="18" width="16" style="4" customWidth="1"/>
-    <col min="19" max="19" width="21.875" style="24" customWidth="1"/>
+    <col min="19" max="19" width="21.875" style="22" customWidth="1"/>
     <col min="20" max="20" width="18.375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="19.875" style="24" customWidth="1"/>
+    <col min="21" max="21" width="19.875" style="22" customWidth="1"/>
     <col min="22" max="22" width="34" style="4" customWidth="1"/>
     <col min="23" max="16384" width="9" style="4"/>
   </cols>
@@ -1059,7 +1152,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1095,13 +1188,13 @@
       <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="19" t="s">
         <v>18</v>
       </c>
       <c r="V1" s="6" t="s">
@@ -1127,7 +1220,7 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="4">
@@ -1151,13 +1244,13 @@
       <c r="R2" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="22">
         <v>1597102200</v>
       </c>
       <c r="T2" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2" s="20">
         <v>1597679999</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -1183,7 +1276,7 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="4">
@@ -1207,13 +1300,13 @@
       <c r="R3" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="22">
         <v>1597102200</v>
       </c>
       <c r="T3" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="20">
         <v>1597679999</v>
       </c>
       <c r="V3" s="4" t="s">
@@ -1239,7 +1332,7 @@
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="3">
@@ -1266,13 +1359,13 @@
       <c r="R4" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="22">
         <v>1597102200</v>
       </c>
       <c r="T4" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="20">
         <v>1597679999</v>
       </c>
       <c r="V4" s="3" t="s">
@@ -1298,7 +1391,7 @@
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="3">
@@ -1325,13 +1418,13 @@
       <c r="R5" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="22">
         <v>1597102200</v>
       </c>
       <c r="T5" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="20">
         <v>1597679999</v>
       </c>
       <c r="V5" s="3" t="s">
@@ -1357,7 +1450,7 @@
       <c r="F6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="8">
@@ -1381,13 +1474,13 @@
       <c r="R6" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="21">
         <v>1597707000</v>
       </c>
       <c r="T6" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="21">
         <v>1598284799</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -1414,7 +1507,7 @@
       <c r="F7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="8">
@@ -1438,13 +1531,13 @@
       <c r="R7" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="21">
         <v>1597707000</v>
       </c>
       <c r="T7" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="21">
         <v>1598284799</v>
       </c>
       <c r="V7" s="8" t="s">
@@ -1470,7 +1563,7 @@
       <c r="F8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="8">
@@ -1497,13 +1590,13 @@
       <c r="R8" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="21">
         <v>1597707000</v>
       </c>
       <c r="T8" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="21">
         <v>1598284799</v>
       </c>
       <c r="V8" s="8" t="s">
@@ -1529,7 +1622,7 @@
       <c r="F9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="8">
@@ -1553,13 +1646,13 @@
       <c r="R9" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="21">
         <v>1598311800</v>
       </c>
       <c r="T9" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="21">
         <v>1598889599</v>
       </c>
       <c r="V9" s="8" t="s">
@@ -1585,7 +1678,7 @@
       <c r="F10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="8">
@@ -1609,13 +1702,13 @@
       <c r="R10" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="21">
         <v>1598311800</v>
       </c>
       <c r="T10" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="21">
         <v>1598889599</v>
       </c>
       <c r="V10" s="8" t="s">
@@ -1641,7 +1734,7 @@
       <c r="F11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="8">
@@ -1665,13 +1758,13 @@
       <c r="R11" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="21">
         <v>1598311800</v>
       </c>
       <c r="T11" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="21">
         <v>1598889599</v>
       </c>
       <c r="V11" s="8" t="s">
@@ -1685,58 +1778,58 @@
       <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
         <v>3</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="17">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16">
-        <v>1</v>
-      </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17" t="s">
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14">
+        <v>1</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="16">
         <v>44201.3125</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="18">
         <v>1609804800</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="16">
         <v>44207.999988425923</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="18">
         <v>1610380799</v>
       </c>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="15" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1759,7 +1852,7 @@
       <c r="F13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="8">
@@ -1783,13 +1876,13 @@
       <c r="R13" s="10">
         <v>44103.3125</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="21">
         <v>1601335800</v>
       </c>
       <c r="T13" s="10">
         <v>44109.999988425923</v>
       </c>
-      <c r="U13" s="23">
+      <c r="U13" s="21">
         <v>1601913599</v>
       </c>
       <c r="V13" s="8" t="s">
@@ -1815,7 +1908,7 @@
       <c r="F14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="8">
@@ -1839,13 +1932,13 @@
       <c r="R14" s="10">
         <v>44103.3125</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="21">
         <v>1601335800</v>
       </c>
       <c r="T14" s="10">
         <v>44109.999988425923</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="21">
         <v>1601913599</v>
       </c>
       <c r="V14" s="4" t="s">
@@ -1868,7 +1961,7 @@
       <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="8">
@@ -1892,13 +1985,13 @@
       <c r="R15" s="10">
         <v>44103.3125</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="21">
         <v>1601335800</v>
       </c>
       <c r="T15" s="10">
         <v>44109.999988425923</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="21">
         <v>1601913599</v>
       </c>
       <c r="V15" s="4" t="s">
@@ -1921,10 +2014,10 @@
       <c r="E16" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="8">
@@ -1948,13 +2041,13 @@
       <c r="R16" s="7">
         <v>44138.3125</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="20">
         <v>1604359800</v>
       </c>
       <c r="T16" s="7">
         <v>44144.999988425923</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="20">
         <v>1604937599</v>
       </c>
       <c r="V16" s="3" t="s">
@@ -1980,7 +2073,7 @@
       <c r="F17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="3">
@@ -2007,13 +2100,13 @@
       <c r="R17" s="7">
         <v>44138.3125</v>
       </c>
-      <c r="S17" s="22">
+      <c r="S17" s="20">
         <v>1604359800</v>
       </c>
       <c r="T17" s="7">
         <v>44144.999988425923</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17" s="20">
         <v>1604937599</v>
       </c>
       <c r="V17" s="3" t="s">
@@ -2036,10 +2129,10 @@
       <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="24" t="s">
         <v>104</v>
       </c>
       <c r="H18" s="8">
@@ -2063,13 +2156,13 @@
       <c r="R18" s="7">
         <v>44152.3125</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="21">
         <v>1606176000</v>
       </c>
       <c r="T18" s="7">
         <v>44159.999988425923</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18" s="20">
         <v>1606751999</v>
       </c>
     </row>
@@ -2089,10 +2182,10 @@
       <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="8">
@@ -2116,13 +2209,13 @@
       <c r="R19" s="7">
         <v>44152.3125</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="21">
         <v>1606176000</v>
       </c>
       <c r="T19" s="7">
         <v>44159.999988425923</v>
       </c>
-      <c r="U19" s="22">
+      <c r="U19" s="20">
         <v>1606751999</v>
       </c>
     </row>
@@ -2145,7 +2238,7 @@
       <c r="F20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="8">
@@ -2169,13 +2262,13 @@
       <c r="R20" s="7">
         <v>44173.333333333336</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="21">
         <v>1607385600</v>
       </c>
       <c r="T20" s="7">
         <v>44179.999988425923</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="20">
         <v>1607961599</v>
       </c>
     </row>
@@ -2198,7 +2291,7 @@
       <c r="F21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="3">
@@ -2222,13 +2315,13 @@
       <c r="R21" s="7">
         <v>44173.333333333336</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="21">
         <v>1607385600</v>
       </c>
       <c r="T21" s="7">
         <v>44179.999988425923</v>
       </c>
-      <c r="U21" s="22">
+      <c r="U21" s="20">
         <v>1607961599</v>
       </c>
     </row>
@@ -2239,56 +2332,56 @@
       <c r="B22" s="11">
         <v>21</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>1</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="17">
-        <v>1</v>
-      </c>
-      <c r="I22" s="16" t="s">
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16">
-        <v>1</v>
-      </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16" t="s">
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14">
+        <v>1</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="Q22" s="16" t="s">
+      <c r="Q22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22" s="16">
         <v>44201.3125</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S22" s="18">
         <v>1609804800</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="16">
         <v>44207.999988425923</v>
       </c>
-      <c r="U22" s="20">
+      <c r="U22" s="18">
         <v>1610380799</v>
       </c>
-      <c r="V22" s="16"/>
+      <c r="V22" s="14"/>
     </row>
     <row r="23" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -2297,56 +2390,56 @@
       <c r="B23" s="11">
         <v>22</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
         <v>2</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="16">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16" t="s">
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16">
-        <v>1</v>
-      </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16" t="s">
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14">
+        <v>1</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="16" t="s">
+      <c r="Q23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23" s="16">
         <v>44201.3125</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="18">
         <v>1609804800</v>
       </c>
-      <c r="T23" s="18">
+      <c r="T23" s="16">
         <v>44207.999988425923</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="18">
         <v>1610380799</v>
       </c>
-      <c r="V23" s="16"/>
+      <c r="V23" s="14"/>
     </row>
     <row r="24" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
@@ -2364,14 +2457,14 @@
       <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>27</v>
@@ -2391,13 +2484,13 @@
       <c r="R24" s="7">
         <v>44180.333333333336</v>
       </c>
-      <c r="S24" s="15">
+      <c r="S24" s="13">
         <v>1607990400</v>
       </c>
       <c r="T24" s="7">
         <v>44190.999988425923</v>
       </c>
-      <c r="U24" s="15">
+      <c r="U24" s="13">
         <v>1608566399</v>
       </c>
     </row>
@@ -2411,123 +2504,272 @@
       <c r="C25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
         <v>3</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14">
+        <v>1</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="16">
+        <v>44201.3125</v>
+      </c>
+      <c r="S25" s="18">
+        <v>1609804800</v>
+      </c>
+      <c r="T25" s="16">
+        <v>44207.999988425923</v>
+      </c>
+      <c r="U25" s="18">
+        <v>1610380799</v>
+      </c>
+      <c r="V25" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27">
         <v>25</v>
       </c>
-      <c r="G25" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="17">
-        <v>1</v>
-      </c>
-      <c r="I25" s="16" t="s">
+      <c r="B26" s="28">
+        <v>25</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="29">
+        <v>0</v>
+      </c>
+      <c r="E26" s="29">
+        <v>1</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="29">
+        <v>1</v>
+      </c>
+      <c r="I26" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J26" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="N26" s="27">
+        <v>1</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="R26" s="33">
+        <v>44208.3125</v>
+      </c>
+      <c r="S26" s="31">
+        <v>1610409600</v>
+      </c>
+      <c r="T26" s="33">
+        <v>44214.999988425923</v>
+      </c>
+      <c r="U26" s="31">
+        <v>1610985599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28">
+        <v>26</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0</v>
+      </c>
+      <c r="E27" s="29">
+        <v>2</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="29">
+        <v>1</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="N27" s="27">
+        <v>1</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="R27" s="33">
+        <v>44208.3125</v>
+      </c>
+      <c r="S27" s="31">
+        <v>1610409600</v>
+      </c>
+      <c r="T27" s="33">
+        <v>44214.999988425923</v>
+      </c>
+      <c r="U27" s="31">
+        <v>1610985599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0</v>
+      </c>
+      <c r="E28" s="29">
+        <v>3</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="29">
+        <v>1</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="N28" s="27">
+        <v>1</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="R28" s="33">
+        <v>44208.3125</v>
+      </c>
+      <c r="S28" s="32">
+        <v>1610409600</v>
+      </c>
+      <c r="T28" s="33">
+        <v>44214.999988425923</v>
+      </c>
+      <c r="U28" s="31">
+        <v>1610985599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
         <v>28</v>
       </c>
-      <c r="K25" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16">
-        <v>1</v>
-      </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="18">
-        <v>44201.3125</v>
-      </c>
-      <c r="S25" s="20">
-        <v>1609804800</v>
-      </c>
-      <c r="T25" s="18">
-        <v>44207.999988425923</v>
-      </c>
-      <c r="U25" s="20">
-        <v>1610380799</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>3</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="17">
-        <v>1</v>
-      </c>
-      <c r="I26" s="16" t="s">
+      <c r="B29" s="28">
+        <v>28</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16">
-        <v>1</v>
-      </c>
-      <c r="O26" s="16"/>
-      <c r="P26" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" s="18">
-        <v>44201.3125</v>
-      </c>
-      <c r="S26" s="20">
-        <v>1609804800</v>
-      </c>
-      <c r="T26" s="18">
-        <v>44207.999988425923</v>
-      </c>
-      <c r="U26" s="20">
-        <v>1610380799</v>
-      </c>
-      <c r="V26" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S28" s="14"/>
-      <c r="T28" s="12"/>
+      <c r="J29" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="N29" s="27">
+        <v>1</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="R29" s="33">
+        <v>44208.3125</v>
+      </c>
+      <c r="S29" s="32">
+        <v>1610409600</v>
+      </c>
+      <c r="T29" s="33">
+        <v>44214.999988425923</v>
+      </c>
+      <c r="U29" s="31">
+        <v>1610985599</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
   <si>
     <t>id|行号</t>
   </si>
@@ -517,6 +517,18 @@
   </si>
   <si>
     <t>"act_039_ty_by_hhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_041_xyxfl_config_cjj"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_041_xyxfl_config_cjj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl_cjj</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -997,10 +1009,10 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2453,6 +2465,68 @@
         <v>125</v>
       </c>
     </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>3</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16">
+        <v>1</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" s="18">
+        <v>44201.3125</v>
+      </c>
+      <c r="S26" s="20">
+        <v>1609804800</v>
+      </c>
+      <c r="T26" s="18">
+        <v>44207.999988425923</v>
+      </c>
+      <c r="U26" s="20">
+        <v>1610380799</v>
+      </c>
+      <c r="V26" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="S28" s="14"/>
       <c r="T28" s="12"/>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -504,10 +504,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_041_xyxfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_030_xyxfl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -528,8 +524,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_041_xyxfl_cjj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>xyxfl_3dby_limit</t>
+  </si>
+  <si>
+    <t>xyxfl_cjj_limit</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1010,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
+      <selection pane="bottomRight" activeCell="V25" sqref="V25:V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1739,7 +1737,7 @@
         <v>1610380799</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -2251,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>23</v>
@@ -2273,7 +2271,7 @@
       </c>
       <c r="O22" s="16"/>
       <c r="P22" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="16" t="s">
         <v>49</v>
@@ -2462,7 +2460,7 @@
         <v>1610380799</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -2497,7 +2495,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
@@ -2506,7 +2504,7 @@
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="16" t="s">
         <v>22</v>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
   <si>
     <t>id|行号</t>
   </si>
@@ -600,7 +600,38 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>狂欢福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_043_khfl_config</t>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_043_khfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>"act_039_ty_by_hhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>|活动模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换活动模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落物排行榜模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵珠排行榜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +697,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,12 +713,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +748,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,9 +799,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -801,24 +823,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1097,13 +1109,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1111,29 +1123,30 @@
     <col min="1" max="1" width="10.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="42.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="43.875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="21.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.75" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="18.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="29.625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16" style="4" customWidth="1"/>
-    <col min="19" max="19" width="21.875" style="22" customWidth="1"/>
-    <col min="20" max="20" width="18.375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="19.875" style="22" customWidth="1"/>
-    <col min="22" max="22" width="34" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="4"/>
+    <col min="4" max="4" width="18.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="42.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="43.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="21.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="18.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="29.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="16" style="4" customWidth="1"/>
+    <col min="20" max="20" width="21.875" style="21" customWidth="1"/>
+    <col min="21" max="21" width="18.375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="19.875" style="21" customWidth="1"/>
+    <col min="23" max="23" width="34" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22 16384:16384" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,64 +1157,67 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1211,53 +1227,53 @@
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
       <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="7">
+      <c r="S2" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S2" s="22">
+      <c r="T2" s="21">
         <v>1597102200</v>
       </c>
-      <c r="T2" s="7">
+      <c r="U2" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U2" s="20">
+      <c r="V2" s="19">
         <v>1597679999</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1267,53 +1283,53 @@
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
       <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="7">
+      <c r="S3" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S3" s="22">
+      <c r="T3" s="21">
         <v>1597102200</v>
       </c>
-      <c r="T3" s="7">
+      <c r="U3" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U3" s="20">
+      <c r="V3" s="19">
         <v>1597679999</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1323,56 +1339,56 @@
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
       <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="7">
+      <c r="S4" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S4" s="22">
+      <c r="T4" s="21">
         <v>1597102200</v>
       </c>
-      <c r="T4" s="7">
+      <c r="U4" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U4" s="20">
+      <c r="V4" s="19">
         <v>1597679999</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1382,56 +1398,56 @@
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
       <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="7">
+      <c r="S5" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S5" s="22">
+      <c r="T5" s="21">
         <v>1597102200</v>
       </c>
-      <c r="T5" s="7">
+      <c r="U5" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U5" s="20">
+      <c r="V5" s="19">
         <v>1597679999</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1441,54 +1457,54 @@
       <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8" t="s">
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S6" s="21">
+      <c r="T6" s="20">
         <v>1597707000</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U6" s="21">
+      <c r="V6" s="20">
         <v>1598284799</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="W6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="XFD6" s="3"/>
-    </row>
-    <row r="7" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1498,53 +1514,54 @@
       <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8" t="s">
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="9">
+      <c r="S7" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S7" s="21">
+      <c r="T7" s="20">
         <v>1597707000</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U7" s="21">
+      <c r="V7" s="20">
         <v>1598284799</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1554,56 +1571,57 @@
       <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <v>3</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8" t="s">
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="9">
+      <c r="S8" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S8" s="21">
+      <c r="T8" s="20">
         <v>1597707000</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U8" s="21">
+      <c r="V8" s="20">
         <v>1598284799</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="W8" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1613,53 +1631,54 @@
       <c r="C9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8" t="s">
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S9" s="21">
+      <c r="T9" s="20">
         <v>1598311800</v>
       </c>
-      <c r="T9" s="7">
+      <c r="U9" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U9" s="21">
+      <c r="V9" s="20">
         <v>1598889599</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="W9" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1669,53 +1688,54 @@
       <c r="C10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="8" t="s">
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="7">
+      <c r="S10" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S10" s="21">
+      <c r="T10" s="20">
         <v>1598311800</v>
       </c>
-      <c r="T10" s="7">
+      <c r="U10" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U10" s="21">
+      <c r="V10" s="20">
         <v>1598889599</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="W10" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1725,280 +1745,282 @@
       <c r="C11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
         <v>3</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="8" t="s">
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R11" s="7">
+      <c r="S11" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S11" s="21">
+      <c r="T11" s="20">
         <v>1598311800</v>
       </c>
-      <c r="T11" s="7">
+      <c r="U11" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U11" s="21">
+      <c r="V11" s="20">
         <v>1598889599</v>
       </c>
-      <c r="V11" s="8" t="s">
+      <c r="W11" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
         <v>3</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="H12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="K12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14">
-        <v>1</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15" t="s">
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="R12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="16">
-        <v>44201.3125</v>
-      </c>
-      <c r="S12" s="18">
-        <v>1609804800</v>
-      </c>
-      <c r="T12" s="16">
-        <v>44207.999988425923</v>
-      </c>
-      <c r="U12" s="18">
-        <v>1610380799</v>
-      </c>
-      <c r="V12" s="15" t="s">
+      <c r="S12" s="7">
+        <v>44215.3125</v>
+      </c>
+      <c r="T12" s="28">
+        <v>1610380800</v>
+      </c>
+      <c r="U12" s="7">
+        <v>44221.999988425923</v>
+      </c>
+      <c r="V12" s="28">
+        <v>1611590399</v>
+      </c>
+      <c r="W12" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="11">
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8" t="s">
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="10">
+      <c r="S13" s="7">
         <v>44103.3125</v>
       </c>
-      <c r="S13" s="21">
+      <c r="T13" s="20">
         <v>1601335800</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="7">
         <v>44109.999988425923</v>
       </c>
-      <c r="U13" s="21">
+      <c r="V13" s="20">
         <v>1601913599</v>
       </c>
-      <c r="V13" s="8" t="s">
+      <c r="W13" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="11">
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
         <v>2</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="8" t="s">
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="10">
+      <c r="S14" s="7">
         <v>44103.3125</v>
       </c>
-      <c r="S14" s="21">
+      <c r="T14" s="20">
         <v>1601335800</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="7">
         <v>44109.999988425923</v>
       </c>
-      <c r="U14" s="21">
+      <c r="V14" s="20">
         <v>1601913599</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="11">
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="H15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8" t="s">
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="7">
         <v>44103.3125</v>
       </c>
-      <c r="S15" s="21">
+      <c r="T15" s="20">
         <v>1601335800</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="7">
         <v>44109.999988425923</v>
       </c>
-      <c r="U15" s="21">
+      <c r="V15" s="20">
         <v>1601913599</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:22 16384:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2008,53 +2030,54 @@
       <c r="C16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="H16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R16" s="7">
+      <c r="S16" s="7">
         <v>44138.3125</v>
       </c>
-      <c r="S16" s="20">
+      <c r="T16" s="19">
         <v>1604359800</v>
       </c>
-      <c r="T16" s="7">
+      <c r="U16" s="7">
         <v>44144.999988425923</v>
       </c>
-      <c r="U16" s="20">
+      <c r="V16" s="19">
         <v>1604937599</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2064,56 +2087,56 @@
       <c r="C17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R17" s="7">
+      <c r="S17" s="7">
         <v>44138.3125</v>
       </c>
-      <c r="S17" s="20">
+      <c r="T17" s="19">
         <v>1604359800</v>
       </c>
-      <c r="T17" s="7">
+      <c r="U17" s="7">
         <v>44144.999988425923</v>
       </c>
-      <c r="U17" s="20">
+      <c r="V17" s="19">
         <v>1604937599</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2123,50 +2146,51 @@
       <c r="C18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="H18" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3" t="s">
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="7">
+      <c r="S18" s="7">
         <v>44152.3125</v>
       </c>
-      <c r="S18" s="21">
+      <c r="T18" s="20">
         <v>1606176000</v>
       </c>
-      <c r="T18" s="7">
+      <c r="U18" s="7">
         <v>44159.999988425923</v>
       </c>
-      <c r="U18" s="20">
+      <c r="V18" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2176,50 +2200,51 @@
       <c r="C19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="H19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3" t="s">
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="7">
+      <c r="S19" s="7">
         <v>44152.3125</v>
       </c>
-      <c r="S19" s="21">
+      <c r="T19" s="20">
         <v>1606176000</v>
       </c>
-      <c r="T19" s="7">
+      <c r="U19" s="7">
         <v>44159.999988425923</v>
       </c>
-      <c r="U19" s="20">
+      <c r="V19" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2229,50 +2254,51 @@
       <c r="C20" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="H20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3" t="s">
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="7">
+      <c r="S20" s="7">
         <v>44173.333333333336</v>
       </c>
-      <c r="S20" s="21">
+      <c r="T20" s="20">
         <v>1607385600</v>
       </c>
-      <c r="T20" s="7">
+      <c r="U20" s="7">
         <v>44179.999988425923</v>
       </c>
-      <c r="U20" s="20">
+      <c r="V20" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2282,166 +2308,156 @@
       <c r="C21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="H21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="3">
-        <v>1</v>
-      </c>
-      <c r="P21" s="3" t="s">
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="7">
+      <c r="S21" s="7">
         <v>44173.333333333336</v>
       </c>
-      <c r="S21" s="21">
+      <c r="T21" s="20">
         <v>1607385600</v>
       </c>
-      <c r="T21" s="7">
+      <c r="U21" s="7">
         <v>44179.999988425923</v>
       </c>
-      <c r="U21" s="20">
+      <c r="V21" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="11">
         <v>21</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="H22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="K22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14">
-        <v>1</v>
-      </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14" t="s">
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="R22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="16">
-        <v>44201.3125</v>
-      </c>
-      <c r="S22" s="18">
-        <v>1609804800</v>
-      </c>
-      <c r="T22" s="16">
-        <v>44207.999988425923</v>
-      </c>
-      <c r="U22" s="18">
-        <v>1610380799</v>
-      </c>
-      <c r="V22" s="14"/>
-    </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S22" s="7">
+        <v>44215.3125</v>
+      </c>
+      <c r="T22" s="28">
+        <v>1610380800</v>
+      </c>
+      <c r="U22" s="7">
+        <v>44221.999988425923</v>
+      </c>
+      <c r="V22" s="28">
+        <v>1611590399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="11">
         <v>22</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="14">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="G23" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="H23" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="K23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14">
-        <v>1</v>
-      </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14" t="s">
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="R23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="16">
-        <v>44201.3125</v>
-      </c>
-      <c r="S23" s="18">
-        <v>1609804800</v>
-      </c>
-      <c r="T23" s="16">
-        <v>44207.999988425923</v>
-      </c>
-      <c r="U23" s="18">
-        <v>1610380799</v>
-      </c>
-      <c r="V23" s="14"/>
-    </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S23" s="7">
+        <v>44215.3125</v>
+      </c>
+      <c r="T23" s="28">
+        <v>1610380800</v>
+      </c>
+      <c r="U23" s="7">
+        <v>44221.999988425923</v>
+      </c>
+      <c r="V23" s="28">
+        <v>1611590399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2451,324 +2467,505 @@
       <c r="C24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="G24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="H24" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3" t="s">
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="R24" s="7">
+      <c r="S24" s="7">
         <v>44180.333333333336</v>
       </c>
-      <c r="S24" s="13">
+      <c r="T24" s="13">
         <v>1607990400</v>
       </c>
-      <c r="T24" s="7">
+      <c r="U24" s="7">
         <v>44190.999988425923</v>
       </c>
-      <c r="U24" s="13">
+      <c r="V24" s="13">
         <v>1608566399</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="11">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
         <v>3</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="G25" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="H25" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="15">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="K25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="L25" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14">
-        <v>1</v>
-      </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15" t="s">
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="Q25" s="14" t="s">
+      <c r="R25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R25" s="16">
+      <c r="S25" s="7">
         <v>44201.3125</v>
       </c>
-      <c r="S25" s="18">
+      <c r="T25" s="26">
         <v>1609804800</v>
       </c>
-      <c r="T25" s="16">
+      <c r="U25" s="7">
         <v>44207.999988425923</v>
       </c>
-      <c r="U25" s="18">
+      <c r="V25" s="26">
         <v>1610380799</v>
       </c>
-      <c r="V25" s="15" t="s">
+      <c r="W25" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+    <row r="26" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="11">
         <v>25</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="29">
-        <v>0</v>
-      </c>
-      <c r="E26" s="29">
-        <v>1</v>
-      </c>
-      <c r="F26" s="27" t="s">
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="H26" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="29">
-        <v>1</v>
-      </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="K26" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N26" s="27">
-        <v>1</v>
-      </c>
-      <c r="P26" s="27" t="s">
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="S26" s="7">
+        <v>44215.3125</v>
+      </c>
+      <c r="T26" s="28">
+        <v>1610380800</v>
+      </c>
+      <c r="U26" s="7">
+        <v>44221.999988425923</v>
+      </c>
+      <c r="V26" s="28">
+        <v>1611590399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S27" s="7">
+        <v>44208.3125</v>
+      </c>
+      <c r="T27" s="19">
+        <v>1610409600</v>
+      </c>
+      <c r="U27" s="7">
+        <v>44214.999988425923</v>
+      </c>
+      <c r="V27" s="19">
+        <v>1610985599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S28" s="7">
+        <v>44208.3125</v>
+      </c>
+      <c r="T28" s="26">
+        <v>1610409600</v>
+      </c>
+      <c r="U28" s="7">
+        <v>44214.999988425923</v>
+      </c>
+      <c r="V28" s="19">
+        <v>1610985599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S29" s="7">
+        <v>44208.3125</v>
+      </c>
+      <c r="T29" s="26">
+        <v>1610409600</v>
+      </c>
+      <c r="U29" s="7">
+        <v>44214.999988425923</v>
+      </c>
+      <c r="V29" s="19">
+        <v>1610985599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>29</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="15">
+        <v>1</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14">
+        <v>1</v>
+      </c>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="S30" s="16">
+        <v>44215.3125</v>
+      </c>
+      <c r="T30" s="27">
+        <v>1611014400</v>
+      </c>
+      <c r="U30" s="16">
+        <v>44221.999988425923</v>
+      </c>
+      <c r="V30" s="27">
+        <v>1611590399</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>30</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
+        <v>2</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14">
+        <v>1</v>
+      </c>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" s="16">
+        <v>44215.3125</v>
+      </c>
+      <c r="T31" s="27">
+        <v>1611014400</v>
+      </c>
+      <c r="U31" s="16">
+        <v>44221.999988425923</v>
+      </c>
+      <c r="V31" s="27">
+        <v>1611590399</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>31</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q26" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="R26" s="33">
-        <v>44208.3125</v>
-      </c>
-      <c r="S26" s="31">
-        <v>1610409600</v>
-      </c>
-      <c r="T26" s="33">
-        <v>44214.999988425923</v>
-      </c>
-      <c r="U26" s="31">
-        <v>1610985599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
-        <v>26</v>
-      </c>
-      <c r="B27" s="28">
-        <v>26</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="29">
-        <v>0</v>
-      </c>
-      <c r="E27" s="29">
-        <v>2</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="29">
-        <v>1</v>
-      </c>
-      <c r="I27" s="27" t="s">
+      <c r="D32" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>3</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="N27" s="27">
-        <v>1</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="R27" s="33">
-        <v>44208.3125</v>
-      </c>
-      <c r="S27" s="31">
-        <v>1610409600</v>
-      </c>
-      <c r="T27" s="33">
-        <v>44214.999988425923</v>
-      </c>
-      <c r="U27" s="31">
-        <v>1610985599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
-        <v>27</v>
-      </c>
-      <c r="B28" s="28">
-        <v>27</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="29">
-        <v>0</v>
-      </c>
-      <c r="E28" s="29">
-        <v>3</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="29">
-        <v>1</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="N28" s="27">
-        <v>1</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="R28" s="33">
-        <v>44208.3125</v>
-      </c>
-      <c r="S28" s="32">
-        <v>1610409600</v>
-      </c>
-      <c r="T28" s="33">
-        <v>44214.999988425923</v>
-      </c>
-      <c r="U28" s="31">
-        <v>1610985599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
+      <c r="K32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="28">
-        <v>28</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="29">
-        <v>4</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" s="29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="N29" s="27">
-        <v>1</v>
-      </c>
-      <c r="P29" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q29" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="R29" s="33">
-        <v>44208.3125</v>
-      </c>
-      <c r="S29" s="32">
-        <v>1610409600</v>
-      </c>
-      <c r="T29" s="33">
-        <v>44214.999988425923</v>
-      </c>
-      <c r="U29" s="31">
-        <v>1610985599</v>
+      <c r="L32" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14">
+        <v>1</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" s="16">
+        <v>44215.3125</v>
+      </c>
+      <c r="T32" s="27">
+        <v>1611014400</v>
+      </c>
+      <c r="U32" s="16">
+        <v>44221.999988425923</v>
+      </c>
+      <c r="V32" s="27">
+        <v>1611590399</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="159">
   <si>
     <t>id|行号</t>
   </si>
@@ -633,6 +633,9 @@
   <si>
     <t>灵珠排行榜</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_no_vivo</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1118,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
+      <selection pane="bottomRight" activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2843,7 +2846,9 @@
       <c r="V30" s="27">
         <v>1611590399</v>
       </c>
-      <c r="W30" s="14"/>
+      <c r="W30" s="14" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="31" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
@@ -2904,7 +2909,9 @@
       <c r="V31" s="27">
         <v>1611590399</v>
       </c>
-      <c r="W31" s="14"/>
+      <c r="W31" s="14" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="32" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">

--- a/config_debug/activity_year_config.xlsx
+++ b/config_debug/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>id|行号</t>
   </si>
@@ -1112,10 +1112,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2967,6 +2967,9 @@
       <c r="V32" s="27">
         <v>1611590399</v>
       </c>
+      <c r="W32" s="8" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
